--- a/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,843 +453,1267 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44956</v>
+        <v>44962</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44970</v>
+        <v>44962</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44977</v>
+        <v>44976</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45138</v>
+        <v>44983</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45145</v>
+        <v>45144</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
-      </c>
-      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45152</v>
+        <v>45151</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45159</v>
+        <v>45158</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45166</v>
+        <v>45165</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45173</v>
+        <v>45172</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45180</v>
+        <v>45179</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45187</v>
+        <v>45186</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45194</v>
+        <v>45193</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
-      </c>
-      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45201</v>
+        <v>45200</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45208</v>
+        <v>45207</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45215</v>
+        <v>45214</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
-      </c>
-      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
-      </c>
-      <c r="C17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="B18" t="n">
-        <v>63</v>
-      </c>
-      <c r="C18" t="n">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="B19" t="n">
-        <v>101</v>
-      </c>
-      <c r="C19" t="n">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="B20" t="n">
-        <v>54</v>
-      </c>
-      <c r="C20" t="n">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="B21" t="n">
-        <v>136</v>
-      </c>
-      <c r="C21" t="n">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
+        <v>136</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="B23" t="n">
-        <v>67</v>
-      </c>
-      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45271</v>
+        <v>45270</v>
       </c>
       <c r="B24" t="n">
-        <v>68</v>
-      </c>
-      <c r="C24" t="n">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45285</v>
+        <v>45277</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
-      </c>
-      <c r="C25" t="n">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>450</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B27" t="n">
-        <v>53</v>
-      </c>
-      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
-      </c>
-      <c r="C28" t="n">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45313</v>
+        <v>45312</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
-      </c>
-      <c r="C29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>750</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B31" t="n">
-        <v>54</v>
-      </c>
-      <c r="C31" t="n">
-        <v>570</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45334</v>
+        <v>45333</v>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
-      </c>
-      <c r="C32" t="n">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
-      </c>
-      <c r="C33" t="n">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
-      </c>
-      <c r="C34" t="n">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B35" t="n">
-        <v>27</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
-      </c>
-      <c r="C36" t="n">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
-      </c>
-      <c r="C37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="B38" t="n">
         <v>33</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
-      </c>
-      <c r="C39" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45390</v>
+        <v>45389</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
-      </c>
-      <c r="C40" t="n">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="B42" t="n">
-        <v>31</v>
-      </c>
-      <c r="C42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
-      </c>
-      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
-      </c>
-      <c r="C44" t="n">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
-      </c>
-      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
-      </c>
-      <c r="C46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
-      </c>
-      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
-      </c>
-      <c r="C48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45502</v>
+        <v>45501</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45509</v>
+        <v>45508</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B59" t="n">
-        <v>20</v>
-      </c>
-      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45558</v>
+        <v>45557</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B3" t="n">
+        <v>750</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B4" t="n">
+        <v>570</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-96.49122807017544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C2" t="n">
+        <v>750</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1090 +453,843 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44962</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44962</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44976</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44983</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45144</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45151</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45158</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45165</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45172</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45179</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45186</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45193</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45200</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45207</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45214</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45221</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45228</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45235</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45242</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C20" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45249</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D21" t="n">
+        <v>136</v>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45256</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>136</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45263</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45270</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D24" t="n">
+        <v>68</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45277</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45291</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D27" t="n">
+        <v>53</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45305</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D28" t="n">
+        <v>51</v>
+      </c>
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45312</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45326</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C31" t="n">
+        <v>570</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45333</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D32" t="n">
+        <v>49</v>
+      </c>
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45340</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45347</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45354</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45361</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45368</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D37" t="n">
+        <v>33</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45375</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45382</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D39" t="n">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45389</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>27</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45396</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45403</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D42" t="n">
+        <v>31</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45410</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>31</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D43" t="n">
+        <v>17</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45424</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45431</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45438</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45445</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45452</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45459</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45466</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45473</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45480</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45487</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45494</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45501</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45508</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45515</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45522</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45529</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>20</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45536</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45543</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45550</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45557</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45564</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45571</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45578</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45585</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45592</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45599</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45606</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45613</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45620</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45627</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45634</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45641</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45648</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,10 +1331,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1589,45 +1342,188 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>750</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>570</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-24</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>-96.49122807017544</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>233.3333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+      <c r="C8" t="n">
+        <v>433.3333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39.99999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-85.71428571428572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>220</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-90.90909090909091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>450</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>750</v>
+      </c>
+      <c r="C16" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>570</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-96.49122807017544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C19" t="n">
         <v>-50</v>
       </c>
     </row>
@@ -1674,10 +1570,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1800</v>
+        <v>2680</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>148.8888888888889</v>
       </c>
       <c r="C2" t="n">
         <v>750</v>
@@ -1714,7 +1610,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>331.4379084967319</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1072,7 +1080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG87"/>
+  <dimension ref="A1:AG84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,7 +1726,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1ZOY81CH</t>
+          <t>3XE5SQLI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1776,17 +1784,17 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
@@ -1813,10 +1821,10 @@
         <v>1100</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AB6" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>45153</v>
@@ -1835,7 +1843,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3XE5SQLI</t>
+          <t>1ZOY81CH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1893,17 +1901,17 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T7" s="2" t="n">
@@ -1930,10 +1938,10 @@
         <v>1100</v>
       </c>
       <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1100</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
         <v>45153</v>
@@ -2069,7 +2077,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7GHF619Z</t>
+          <t>7OY8FWCQ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2118,26 +2126,26 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T9" s="2" t="n">
@@ -2158,13 +2166,13 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="Z9" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="AA9" t="n">
-        <v>770</v>
+        <v>2200</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -2186,7 +2194,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6GT4MW7B</t>
+          <t>868D28XF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2254,7 +2262,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>FTW1</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T10" s="2" t="n">
@@ -2303,7 +2311,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24LLJD5N</t>
+          <t>7GHF619Z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2361,17 +2369,17 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T11" s="2" t="n">
@@ -2398,7 +2406,7 @@
         <v>1100</v>
       </c>
       <c r="AA11" t="n">
-        <v>1100</v>
+        <v>770</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2420,7 +2428,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7OY8FWCQ</t>
+          <t>6GT4MW7B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2469,16 +2477,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2488,7 +2496,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>FTW1</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
@@ -2509,13 +2517,13 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="Z12" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="AA12" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2537,7 +2545,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>868D28XF</t>
+          <t>24LLJD5N</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2605,7 +2613,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T13" s="2" t="n">
@@ -2771,7 +2779,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8TT1ASCP</t>
+          <t>8EP6C51W</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2839,7 +2847,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>TEB9</t>
         </is>
       </c>
       <c r="T15" s="2" t="n">
@@ -2888,7 +2896,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8EP6C51W</t>
+          <t>8TT1ASCP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2956,7 +2964,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>TEB9</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T16" s="2" t="n">
@@ -3122,7 +3130,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4QE8U58F</t>
+          <t>7DIP2ILQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3190,7 +3198,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PHX6</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T18" s="2" t="n">
@@ -3239,7 +3247,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7DIP2ILQ</t>
+          <t>4QE8U58F</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3307,7 +3315,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>PHX6</t>
         </is>
       </c>
       <c r="T19" s="2" t="n">
@@ -3356,7 +3364,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5RTH5GFC</t>
+          <t>3T8VEWGQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3405,16 +3413,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -3424,7 +3432,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>CSG1</t>
         </is>
       </c>
       <c r="T20" s="2" t="n">
@@ -3445,19 +3453,19 @@
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="Z20" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="AA20" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>45209</v>
+        <v>45224</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -3473,7 +3481,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7HZJPXVO</t>
+          <t>4P69GQJN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3522,26 +3530,26 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T21" s="2" t="n">
@@ -3562,19 +3570,19 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="Z21" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="AA21" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="AB21" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>45223</v>
+        <v>45209</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -3590,7 +3598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7NJTJAGH</t>
+          <t>51M2K4YX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3648,17 +3656,17 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>BNA3</t>
         </is>
       </c>
       <c r="T22" s="2" t="n">
@@ -3685,13 +3693,13 @@
         <v>1100</v>
       </c>
       <c r="AA22" t="n">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="AB22" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>45209</v>
+        <v>45217</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3707,7 +3715,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7T44CM1A</t>
+          <t>5I9VZ4OC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3775,7 +3783,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>AFW1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T23" s="2" t="n">
@@ -3808,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>45219</v>
+        <v>45209</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3824,7 +3832,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>51M2K4YX</t>
+          <t>5RTH5GFC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3873,16 +3881,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3892,7 +3900,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>BNA3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T24" s="2" t="n">
@@ -3913,19 +3921,19 @@
         </is>
       </c>
       <c r="Y24" t="n">
-        <v>1100</v>
+        <v>4400</v>
       </c>
       <c r="Z24" t="n">
-        <v>1100</v>
+        <v>4400</v>
       </c>
       <c r="AA24" t="n">
-        <v>1100</v>
+        <v>4400</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>45217</v>
+        <v>45209</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3941,7 +3949,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4P69GQJN</t>
+          <t>7HZJPXVO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3990,26 +3998,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T25" s="2" t="n">
@@ -4030,19 +4038,19 @@
         </is>
       </c>
       <c r="Y25" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="Z25" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="AA25" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>45209</v>
+        <v>45223</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -4058,7 +4066,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3T8VEWGQ</t>
+          <t>7NJTJAGH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4107,26 +4115,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>CSG1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T26" s="2" t="n">
@@ -4147,19 +4155,19 @@
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="Z26" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="AA26" t="n">
-        <v>2200</v>
+        <v>990</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>45224</v>
+        <v>45209</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -4175,7 +4183,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5I9VZ4OC</t>
+          <t>7T44CM1A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4243,7 +4251,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>AFW1</t>
         </is>
       </c>
       <c r="T27" s="2" t="n">
@@ -4276,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>45209</v>
+        <v>45219</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -4526,7 +4534,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15JED8RU</t>
+          <t>3UD9H6BG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4575,26 +4583,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>MDW4</t>
+          <t>BNA3</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4615,19 +4623,19 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="Z30" t="n">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="AA30" t="n">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="AB30" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>45239</v>
+        <v>45236</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -4643,7 +4651,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1HV6BFUP</t>
+          <t>3W813A6V</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4692,16 +4700,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4711,7 +4719,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>HEA2</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T31" s="2" t="n">
@@ -4732,19 +4740,19 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="Z31" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="AA31" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -4760,7 +4768,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3UD9H6BG</t>
+          <t>15JED8RU</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4809,26 +4817,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P32" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>BNA3</t>
+          <t>MDW4</t>
         </is>
       </c>
       <c r="T32" s="2" t="n">
@@ -4849,19 +4857,19 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="Z32" t="n">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="AA32" t="n">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -4877,7 +4885,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3W813A6V</t>
+          <t>1HV6BFUP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4926,16 +4934,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -4945,7 +4953,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>HEA2</t>
         </is>
       </c>
       <c r="T33" s="2" t="n">
@@ -4966,19 +4974,19 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="Z33" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="AA33" t="n">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>45223</v>
+        <v>45222</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4994,7 +5002,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4OBRJW8V</t>
+          <t>5C9NAQOR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5043,26 +5051,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T34" s="2" t="n">
@@ -5083,16 +5091,16 @@
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="Z34" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="AA34" t="n">
-        <v>2200</v>
+        <v>5390</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AC34" s="2" t="n">
         <v>45230</v>
@@ -5111,7 +5119,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2MLHD9MH</t>
+          <t>4OBRJW8V</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5160,16 +5168,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -5179,7 +5187,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>XPH4</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T35" s="2" t="n">
@@ -5200,13 +5208,13 @@
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>7700</v>
+        <v>2200</v>
       </c>
       <c r="Z35" t="n">
-        <v>7700</v>
+        <v>2200</v>
       </c>
       <c r="AA35" t="n">
-        <v>7700</v>
+        <v>2200</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -5228,7 +5236,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5C9NAQOR</t>
+          <t>2MLHD9MH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5277,26 +5285,26 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>XPH4</t>
         </is>
       </c>
       <c r="T36" s="2" t="n">
@@ -5317,16 +5325,16 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="Z36" t="n">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="AA36" t="n">
-        <v>5390</v>
+        <v>7700</v>
       </c>
       <c r="AB36" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="2" t="n">
         <v>45230</v>
@@ -5579,7 +5587,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5KI3A1AA</t>
+          <t>5GCCGWTT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5624,20 +5632,20 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>IA - Accepted: EDI Only</t>
+          <t>IQ - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O39" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="P39" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -5647,7 +5655,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>ABS4</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T39" s="2" t="n">
@@ -5668,19 +5676,19 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>11000</v>
+        <v>3300</v>
       </c>
       <c r="Z39" t="n">
-        <v>11000</v>
+        <v>2860</v>
       </c>
       <c r="AA39" t="n">
-        <v>11000</v>
+        <v>2860</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>45258</v>
+        <v>45244</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -5696,7 +5704,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5GCCGWTT</t>
+          <t>54M8KORB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5741,20 +5749,20 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>IQ - Accepted: EDI Only</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="O40" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="P40" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -5764,7 +5772,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>ABS4</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
@@ -5785,13 +5793,13 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>3300</v>
+        <v>9900</v>
       </c>
       <c r="Z40" t="n">
-        <v>2860</v>
+        <v>9900</v>
       </c>
       <c r="AA40" t="n">
-        <v>2860</v>
+        <v>9900</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -5813,7 +5821,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>54M8KORB</t>
+          <t>5KI3A1AA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5862,16 +5870,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -5902,19 +5910,19 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>9900</v>
+        <v>11000</v>
       </c>
       <c r="Z41" t="n">
-        <v>9900</v>
+        <v>11000</v>
       </c>
       <c r="AA41" t="n">
-        <v>9900</v>
+        <v>11000</v>
       </c>
       <c r="AB41" t="n">
         <v>0</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>45244</v>
+        <v>45258</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -6281,7 +6289,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11SJ3X9I</t>
+          <t>21Z7BZRK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6326,20 +6334,20 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>IA - Accepted: EDI Only</t>
+          <t>IQ - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="O45" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P45" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -6349,7 +6357,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T45" s="2" t="n">
@@ -6370,19 +6378,19 @@
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>8800</v>
+        <v>7700</v>
       </c>
       <c r="Z45" t="n">
-        <v>8800</v>
+        <v>2200</v>
       </c>
       <c r="AA45" t="n">
-        <v>8800</v>
+        <v>2200</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -6515,7 +6523,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21Z7BZRK</t>
+          <t>11SJ3X9I</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6560,20 +6568,20 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>IQ - Accepted: EDI Only</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="O47" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P47" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -6583,7 +6591,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T47" s="2" t="n">
@@ -6604,19 +6612,19 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>7700</v>
+        <v>8800</v>
       </c>
       <c r="Z47" t="n">
-        <v>2200</v>
+        <v>8800</v>
       </c>
       <c r="AA47" t="n">
-        <v>2200</v>
+        <v>8800</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -6866,7 +6874,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29ITOQOB</t>
+          <t>6HMZ82SU</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6924,7 +6932,7 @@
         <v>50</v>
       </c>
       <c r="P50" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -6934,7 +6942,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T50" s="2" t="n">
@@ -6961,13 +6969,13 @@
         <v>5500</v>
       </c>
       <c r="AA50" t="n">
-        <v>5500</v>
+        <v>5610</v>
       </c>
       <c r="AB50" t="n">
         <v>0</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>45324</v>
+        <v>45322</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -6983,7 +6991,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2WNACFCI</t>
+          <t>29ITOQOB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7032,16 +7040,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O51" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P51" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -7051,7 +7059,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T51" s="2" t="n">
@@ -7072,19 +7080,19 @@
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>7700</v>
+        <v>5500</v>
       </c>
       <c r="Z51" t="n">
-        <v>7700</v>
+        <v>5500</v>
       </c>
       <c r="AA51" t="n">
-        <v>7700</v>
+        <v>5500</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>45325</v>
+        <v>45324</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -7100,7 +7108,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6HMZ82SU</t>
+          <t>2WNACFCI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7149,16 +7157,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N52" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -7168,7 +7176,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T52" s="2" t="n">
@@ -7189,19 +7197,19 @@
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="Z52" t="n">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="AA52" t="n">
-        <v>5610</v>
+        <v>7700</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -9323,7 +9331,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4GR482PI</t>
+          <t>4Z49S2ZC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9372,16 +9380,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -9391,7 +9399,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ABE8</t>
         </is>
       </c>
       <c r="T71" s="2" t="n">
@@ -9412,13 +9420,13 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="Z71" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="AA71" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -10727,7 +10735,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4FOCCM2Z</t>
+          <t>4GR482PI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10776,26 +10784,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N83" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O83" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P83" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>SWF2</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T83" s="2" t="n">
@@ -10816,16 +10824,16 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="Z83" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="AA83" t="n">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="AB83" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="2" t="n">
         <v>45327</v>
@@ -10844,7 +10852,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4Z49S2ZC</t>
+          <t>4FOCCM2Z</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10893,26 +10901,26 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O84" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P84" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>ABE8</t>
+          <t>SWF2</t>
         </is>
       </c>
       <c r="T84" s="2" t="n">
@@ -10933,16 +10941,16 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>2200</v>
+        <v>6600</v>
       </c>
       <c r="Z84" t="n">
-        <v>2200</v>
+        <v>6600</v>
       </c>
       <c r="AA84" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AC84" s="2" t="n">
         <v>45327</v>
@@ -10956,357 +10964,6 @@
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="n">
         <v>83</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>8K6SM8XO</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>GIGABYTE A620M Gaming X AMD A620 Micro ATX Motherboard with DDR5, PCIe 4.0, USB 3.2 Gen1x2 Type-C, 5-Year Warranty</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>B0C1ZZ57ZW</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>10</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>HEA2</t>
-        </is>
-      </c>
-      <c r="T85" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U85" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V85" t="n">
-        <v>1</v>
-      </c>
-      <c r="W85" t="n">
-        <v>110</v>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y85" t="n">
-        <v>1100</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>8VQH2DPG</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>GIGABYTE A620M Gaming X AMD A620 Micro ATX Motherboard with DDR5, PCIe 4.0, USB 3.2 Gen1x2 Type-C, 5-Year Warranty</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>B0C1ZZ57ZW</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>10</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T86" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U86" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1</v>
-      </c>
-      <c r="W86" t="n">
-        <v>110</v>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y86" t="n">
-        <v>1100</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3T29EG9V</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>GIGABYTE A620M Gaming X AMD A620 Micro ATX Motherboard with DDR5, PCIe 4.0, USB 3.2 Gen1x2 Type-C, 5-Year Warranty</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>B0C1ZZ57ZW</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>A620M GAMING X</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>10</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U87" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1</v>
-      </c>
-      <c r="W87" t="n">
-        <v>110</v>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y87" t="n">
-        <v>1100</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="n">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -11320,7 +10977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11595,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -11606,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -11694,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -11705,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -11738,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -11749,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -11760,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -11826,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -11837,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -11848,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -11859,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -11881,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
@@ -11892,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -11903,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -11958,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -11969,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -11980,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -12090,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
@@ -12112,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -12255,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -12277,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87">
@@ -12299,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89">
@@ -12310,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -12398,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -12420,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
@@ -12453,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
@@ -12464,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -12552,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -12623,32 +12280,32 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45357</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45357</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B120" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -12656,21 +12313,21 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45364</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -12678,10 +12335,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -12689,10 +12346,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B124" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -12700,10 +12357,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B125" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -12711,10 +12368,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B126" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -12722,10 +12379,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B127" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -12733,10 +12390,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B128" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -12744,10 +12401,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -12755,10 +12412,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -12766,10 +12423,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -12777,10 +12434,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -12788,10 +12445,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B133" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -12799,10 +12456,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -12810,10 +12467,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -12821,7 +12478,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -12832,7 +12489,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -12843,7 +12500,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -12854,10 +12511,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -12865,7 +12522,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -12876,7 +12533,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -12887,10 +12544,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -12898,7 +12555,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -12909,7 +12566,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -12920,10 +12577,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -12931,7 +12588,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -12942,7 +12599,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -12953,7 +12610,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -12964,7 +12621,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -12975,7 +12632,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -12986,7 +12643,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -12997,7 +12654,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -13008,7 +12665,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -13019,7 +12676,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -13030,7 +12687,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -13041,7 +12698,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -13052,7 +12709,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -13063,7 +12720,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -13074,7 +12731,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -13085,7 +12742,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -13096,34 +12753,12 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13170,10 +12805,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2680</v>
+        <v>2650</v>
       </c>
       <c r="B2" t="n">
-        <v>31.16279069767442</v>
+        <v>31.92771084337349</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -13210,7 +12845,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41.77564979480164</v>
+        <v>46.06817513958272</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,6 +1066,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10977,7 +10985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11912,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
@@ -11934,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -12759,6 +12767,17 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0C1ZZ57ZW_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10985,7 +10993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12118,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -12129,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
@@ -12778,6 +12786,17 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
         <v>0</v>
       </c>
     </row>
